--- a/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21294</v>
+        <v>21621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43035</v>
+        <v>44073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1130746321676544</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07799701601800794</v>
+        <v>0.07919352329585244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1576308468902349</v>
+        <v>0.1614351446891035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>33253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23117</v>
+        <v>23953</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44430</v>
+        <v>46738</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.127485237476187</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08862593165633953</v>
+        <v>0.09183192041185824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1703343982548601</v>
+        <v>0.1791855357859879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -786,19 +786,19 @@
         <v>64124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50532</v>
+        <v>48895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80040</v>
+        <v>79684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1201156523866845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09465619206862347</v>
+        <v>0.09158949761576685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1499307516689067</v>
+        <v>0.1492633320331584</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>242139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229975</v>
+        <v>228937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251716</v>
+        <v>251389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8869253678323457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8423691531097657</v>
+        <v>0.8385648553108963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9220029839819923</v>
+        <v>0.9208064767041469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -836,19 +836,19 @@
         <v>227585</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216408</v>
+        <v>214100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>237721</v>
+        <v>236885</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.872514762523813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8296656017451398</v>
+        <v>0.8208144642140121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9113740683436604</v>
+        <v>0.9081680795881417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>456</v>
@@ -857,19 +857,19 @@
         <v>469724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>453808</v>
+        <v>454164</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483316</v>
+        <v>484953</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8798843476133155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8500692483310933</v>
+        <v>0.8507366679668421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9053438079313766</v>
+        <v>0.9084105023842332</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>35154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24762</v>
+        <v>24830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49511</v>
+        <v>49632</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07129595159364084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05021883703841795</v>
+        <v>0.05035802447839396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1004119125949901</v>
+        <v>0.1006578799863745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -982,19 +982,19 @@
         <v>46775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35373</v>
+        <v>34882</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61727</v>
+        <v>59980</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09281772864655505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07019204014697904</v>
+        <v>0.06921803118976869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1224865939036629</v>
+        <v>0.1190199383960706</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -1003,19 +1003,19 @@
         <v>81930</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65655</v>
+        <v>66948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100827</v>
+        <v>101734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08217420273898784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0658510963891704</v>
+        <v>0.06714815756980622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.101127624629502</v>
+        <v>0.1020377145805144</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>457921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>443564</v>
+        <v>443443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468313</v>
+        <v>468245</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9287040484063591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.89958808740501</v>
+        <v>0.8993421200136259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9497811629615821</v>
+        <v>0.9496419755216061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -1053,19 +1053,19 @@
         <v>457174</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442222</v>
+        <v>443969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468576</v>
+        <v>469067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.907182271353445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8775134060963369</v>
+        <v>0.8809800616039294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.929807959853021</v>
+        <v>0.9307819688102313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>888</v>
@@ -1074,19 +1074,19 @@
         <v>915094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>896197</v>
+        <v>895290</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>931369</v>
+        <v>930076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9178257972610122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8988723753704977</v>
+        <v>0.8979622854194856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9341489036108296</v>
+        <v>0.9328518424301938</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14129</v>
+        <v>14012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34113</v>
+        <v>32743</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06997775717947853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04431301046949594</v>
+        <v>0.04394655720185933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1069887303318323</v>
+        <v>0.102691558164458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>29493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20893</v>
+        <v>20305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42307</v>
+        <v>41287</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08793181562426375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06229156559041354</v>
+        <v>0.06053672769463901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1261354790713945</v>
+        <v>0.1230924039285169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1220,19 +1220,19 @@
         <v>51806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39111</v>
+        <v>39088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68298</v>
+        <v>66508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07918208862416506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05977855982302315</v>
+        <v>0.05974394134894179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1043895223216652</v>
+        <v>0.1016548466220032</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>296534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>284733</v>
+        <v>286103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304717</v>
+        <v>304834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9300222428205215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8930112696681677</v>
+        <v>0.8973084418355419</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9556869895305042</v>
+        <v>0.9560534427981405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>307</v>
@@ -1270,19 +1270,19 @@
         <v>305919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293105</v>
+        <v>294125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314519</v>
+        <v>315107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9120681843757362</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8738645209286058</v>
+        <v>0.8769075960714832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9377084344095865</v>
+        <v>0.9394632723053612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -1291,19 +1291,19 @@
         <v>602452</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>585960</v>
+        <v>587750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615147</v>
+        <v>615170</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9208179113758349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8956104776783348</v>
+        <v>0.8983451533779969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9402214401769768</v>
+        <v>0.9402560586510583</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>20202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12525</v>
+        <v>12702</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30002</v>
+        <v>30101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05632580549544448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03492074661365514</v>
+        <v>0.03541383241254312</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08364813197283061</v>
+        <v>0.08392237297204592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1416,19 +1416,19 @@
         <v>36325</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26574</v>
+        <v>26808</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48498</v>
+        <v>49310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09779058670933553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07153900734918667</v>
+        <v>0.07216907996694208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1305612541760737</v>
+        <v>0.132749061511717</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1437,19 +1437,19 @@
         <v>56527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42700</v>
+        <v>43748</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71952</v>
+        <v>72617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07742122957330831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05848316972241247</v>
+        <v>0.05991842446708074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09854667105512124</v>
+        <v>0.0994585954744278</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>338469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328669</v>
+        <v>328570</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346146</v>
+        <v>345969</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9436741945045555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9163518680271694</v>
+        <v>0.9160776270279543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9650792533863449</v>
+        <v>0.9645861675874569</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>347</v>
@@ -1487,19 +1487,19 @@
         <v>335131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322958</v>
+        <v>322146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>344882</v>
+        <v>344648</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9022094132906645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8694387458239261</v>
+        <v>0.8672509384882831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9284609926508134</v>
+        <v>0.9278309200330579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>689</v>
@@ -1508,19 +1508,19 @@
         <v>673600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>658175</v>
+        <v>657510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687427</v>
+        <v>686379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9225787704266917</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9014533289448787</v>
+        <v>0.9005414045255723</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9415168302775875</v>
+        <v>0.9400815755329193</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>19219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11289</v>
+        <v>12156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27711</v>
+        <v>28418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09453106361462423</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05552594493332888</v>
+        <v>0.05979098851317647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1363016844641645</v>
+        <v>0.1397760828099759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3904</v>
+        <v>3817</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15126</v>
+        <v>15451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03892767578225199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01879948274434447</v>
+        <v>0.01838010744613988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07283708921600961</v>
+        <v>0.074404243796903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1654,19 +1654,19 @@
         <v>27303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17499</v>
+        <v>19056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38465</v>
+        <v>39570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06643442767483877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04257865700215475</v>
+        <v>0.04636794052462352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09359337476742682</v>
+        <v>0.09628195629999731</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>184089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>175597</v>
+        <v>174890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192019</v>
+        <v>191152</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9054689363853757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8636983155358354</v>
+        <v>0.860223917190024</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9444740550666711</v>
+        <v>0.9402090114868235</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -1704,19 +1704,19 @@
         <v>199584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192542</v>
+        <v>192217</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203764</v>
+        <v>203851</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.961072324217748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9271629107839904</v>
+        <v>0.9255957562030952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9812005172556555</v>
+        <v>0.9816198925538601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>377</v>
@@ -1725,19 +1725,19 @@
         <v>383673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372511</v>
+        <v>371406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>393477</v>
+        <v>391920</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9335655723251612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9064066252325731</v>
+        <v>0.9037180437000025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9574213429978449</v>
+        <v>0.9536320594753764</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>21968</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14823</v>
+        <v>14610</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32979</v>
+        <v>32531</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08112043763119858</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05473702595782178</v>
+        <v>0.05394970476753166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1217788235592842</v>
+        <v>0.1201259773749594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1850,19 +1850,19 @@
         <v>31340</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21267</v>
+        <v>21697</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43041</v>
+        <v>42565</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1126753698455558</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07646098249908473</v>
+        <v>0.07800571119526849</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1547434030419846</v>
+        <v>0.1530321512852681</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1871,19 +1871,19 @@
         <v>53308</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40109</v>
+        <v>41605</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67240</v>
+        <v>68140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09710866071308487</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07306380578653689</v>
+        <v>0.07578871685378452</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1224871136972463</v>
+        <v>0.1241264184801667</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>248843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237832</v>
+        <v>238280</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255988</v>
+        <v>256201</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9188795623688014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8782211764407162</v>
+        <v>0.8798740226250409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9452629740421783</v>
+        <v>0.9460502952324684</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -1921,19 +1921,19 @@
         <v>246804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235103</v>
+        <v>235579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256877</v>
+        <v>256447</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8873246301544442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8452565969580158</v>
+        <v>0.846967848714732</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9235390175009154</v>
+        <v>0.9219942888047316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>484</v>
@@ -1942,19 +1942,19 @@
         <v>495647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481715</v>
+        <v>480815</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>508846</v>
+        <v>507350</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9028913392869151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8775128863027539</v>
+        <v>0.8758735815198334</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9269361942134636</v>
+        <v>0.9242112831462155</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>43625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30516</v>
+        <v>31265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57616</v>
+        <v>59652</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07093203658537534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0496181436940744</v>
+        <v>0.05083550503528078</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0936796639907842</v>
+        <v>0.096990558962729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2067,19 +2067,19 @@
         <v>53013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39951</v>
+        <v>38167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68556</v>
+        <v>65275</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08306360674432677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06259771087277241</v>
+        <v>0.05980203842490563</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1074176983556435</v>
+        <v>0.1022772963788122</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2088,19 +2088,19 @@
         <v>96638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78149</v>
+        <v>78786</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117495</v>
+        <v>116499</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07711007248536134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06235750836207103</v>
+        <v>0.06286551427706163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09375253167377341</v>
+        <v>0.09295779216979315</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>571402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>557411</v>
+        <v>555375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>584511</v>
+        <v>583762</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9290679634146247</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9063203360092159</v>
+        <v>0.903009441037271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9503818563059256</v>
+        <v>0.9491644949647191</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>569</v>
@@ -2138,19 +2138,19 @@
         <v>585206</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>569663</v>
+        <v>572944</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>598268</v>
+        <v>600052</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9169363932556732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8925823016443565</v>
+        <v>0.8977227036211878</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9374022891272276</v>
+        <v>0.9401979615750942</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1128</v>
@@ -2159,19 +2159,19 @@
         <v>1156608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1135751</v>
+        <v>1136747</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1175097</v>
+        <v>1174460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9228899275146386</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9062474683262262</v>
+        <v>0.9070422078302068</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9376424916379289</v>
+        <v>0.9371344857229384</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>45297</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33524</v>
+        <v>34025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58732</v>
+        <v>60228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06090000504255483</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04507103005511279</v>
+        <v>0.04574489423626504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07896316059143973</v>
+        <v>0.08097396472621837</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2284,19 +2284,19 @@
         <v>57849</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43871</v>
+        <v>44645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73513</v>
+        <v>75421</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07383241985415795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0559929530504564</v>
+        <v>0.05698053860626631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09382505548792953</v>
+        <v>0.09626028185350617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>99</v>
@@ -2305,19 +2305,19 @@
         <v>103146</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85644</v>
+        <v>83735</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124481</v>
+        <v>122783</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06753435924777342</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05607498921792618</v>
+        <v>0.05482526935893561</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08150342340710563</v>
+        <v>0.08039155617837121</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>698498</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>685063</v>
+        <v>683567</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710271</v>
+        <v>709770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9390999949574451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9210368394085602</v>
+        <v>0.9190260352737815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9549289699448872</v>
+        <v>0.9542551057637348</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>692</v>
@@ -2355,19 +2355,19 @@
         <v>725662</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>709998</v>
+        <v>708090</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>739640</v>
+        <v>738866</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9261675801458421</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9061749445120691</v>
+        <v>0.9037397181464936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9440070469495435</v>
+        <v>0.9430194613937336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1382</v>
@@ -2376,19 +2376,19 @@
         <v>1424160</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1402825</v>
+        <v>1404523</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1441662</v>
+        <v>1443571</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9324656407522266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9184965765928944</v>
+        <v>0.9196084438216289</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9439250107820738</v>
+        <v>0.9451747306410645</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>238649</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07283554118712565</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>284</v>
@@ -2501,19 +2501,19 @@
         <v>296132</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08763383293384923</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>511</v>
@@ -2522,19 +2522,19 @@
         <v>534781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08034880686593823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3037894</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3004638</v>
+        <v>3006125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3068031</v>
+        <v>3067103</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9271644588128743</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9170147026015779</v>
+        <v>0.9174685905450155</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9363622418561413</v>
+        <v>0.9360790898111833</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3013</v>
@@ -2572,19 +2572,19 @@
         <v>3083065</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3048445</v>
+        <v>3046006</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3116016</v>
+        <v>3116104</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9123661670661508</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.902121081271304</v>
+        <v>0.9013994626732633</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9221172523224542</v>
+        <v>0.922143344366562</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6000</v>
@@ -2593,19 +2593,19 @@
         <v>6120960</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6077082</v>
+        <v>6074873</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6161683</v>
+        <v>6165061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9196511931340617</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9130586306247367</v>
+        <v>0.9127268012358586</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9257696228984048</v>
+        <v>0.9262771129393904</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>23378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15935</v>
+        <v>15831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33184</v>
+        <v>33180</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0793171433022382</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05406582185651471</v>
+        <v>0.05371293649156599</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.112586441751785</v>
+        <v>0.1125734065663698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2962,19 +2962,19 @@
         <v>25632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16724</v>
+        <v>17195</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38333</v>
+        <v>38457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0892352586609442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05822369120096366</v>
+        <v>0.05986296234625942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1334505272668353</v>
+        <v>0.1338822300418743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -2983,19 +2983,19 @@
         <v>49010</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36929</v>
+        <v>36686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64009</v>
+        <v>63533</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08421235312291299</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06345384744548331</v>
+        <v>0.06303613502405868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1099849489071251</v>
+        <v>0.1091661296872727</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>271360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261554</v>
+        <v>261558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278803</v>
+        <v>278907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9206828566977618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.887413558248215</v>
+        <v>0.8874265934336301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9459341781434852</v>
+        <v>0.9462870635084339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>233</v>
@@ -3033,19 +3033,19 @@
         <v>261613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248912</v>
+        <v>248788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270521</v>
+        <v>270050</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9107647413390558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8665494727331647</v>
+        <v>0.8661177699581257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9417763087990363</v>
+        <v>0.9401370376537407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>490</v>
@@ -3054,19 +3054,19 @@
         <v>532973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517974</v>
+        <v>518450</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545054</v>
+        <v>545297</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.915787646877087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8900150510928748</v>
+        <v>0.8908338703127273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9365461525545167</v>
+        <v>0.9369638649759413</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>26365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15731</v>
+        <v>16221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38294</v>
+        <v>39178</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05215417842866761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03111833791738116</v>
+        <v>0.03208822863710448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07575072953271973</v>
+        <v>0.07749993586388093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3179,19 +3179,19 @@
         <v>37297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26179</v>
+        <v>26707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51171</v>
+        <v>51262</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07120966843966736</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04998286406628712</v>
+        <v>0.05098978115572686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09769792840339196</v>
+        <v>0.09787186293120795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3200,19 +3200,19 @@
         <v>63662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46998</v>
+        <v>48387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80838</v>
+        <v>81619</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06185074293616991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04566057476220887</v>
+        <v>0.04701028058238667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07853728037531063</v>
+        <v>0.07929595662678625</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>479162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467233</v>
+        <v>466349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489796</v>
+        <v>489306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9478458215713323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9242492704672802</v>
+        <v>0.922500064136119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9688816620826188</v>
+        <v>0.9679117713628955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -3250,19 +3250,19 @@
         <v>486468</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472594</v>
+        <v>472503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497586</v>
+        <v>497058</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9287903315603326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.902302071596608</v>
+        <v>0.9021281370687921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950017135933713</v>
+        <v>0.9490102188442735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>896</v>
@@ -3271,19 +3271,19 @@
         <v>965630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948454</v>
+        <v>947673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>982294</v>
+        <v>980905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9381492570638301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9214627196246893</v>
+        <v>0.9207040433732144</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9543394252377911</v>
+        <v>0.9529897194176137</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>24428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16023</v>
+        <v>15902</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36530</v>
+        <v>35418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0753842952873499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04944711871042561</v>
+        <v>0.04907457409573376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.112730865722918</v>
+        <v>0.1092990225128694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3396,19 +3396,19 @@
         <v>46909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34579</v>
+        <v>33939</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60335</v>
+        <v>60142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1375541490188714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1013982741835918</v>
+        <v>0.09952116726940555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1769249893453556</v>
+        <v>0.1763600956193853</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3417,19 +3417,19 @@
         <v>71337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55519</v>
+        <v>55670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88498</v>
+        <v>89028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1072625806633684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0834786855622474</v>
+        <v>0.08370575724070395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1330666732128963</v>
+        <v>0.1338630269520989</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>299618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287516</v>
+        <v>288628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308023</v>
+        <v>308144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9246157047126501</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8872691342770821</v>
+        <v>0.8907009774871287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9505528812895745</v>
+        <v>0.9509254259042662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -3467,19 +3467,19 @@
         <v>294111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280685</v>
+        <v>280878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306441</v>
+        <v>307081</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8624458509811286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8230750106546443</v>
+        <v>0.8236399043806146</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8986017258164081</v>
+        <v>0.9004788327305944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -3488,19 +3488,19 @@
         <v>593729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>576568</v>
+        <v>576038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609547</v>
+        <v>609396</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8927374193366315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8669333267871032</v>
+        <v>0.8661369730479015</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9165213144377525</v>
+        <v>0.9162942427592964</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>35942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25072</v>
+        <v>25929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48249</v>
+        <v>48082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09610546262849412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06704196155499248</v>
+        <v>0.06933092242677687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1290141257045493</v>
+        <v>0.1285663704608259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3613,19 +3613,19 @@
         <v>34289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24384</v>
+        <v>23714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46766</v>
+        <v>46075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08815640287960898</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06269254908396384</v>
+        <v>0.06096852278561644</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1202367989943593</v>
+        <v>0.11845914311126</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -3634,19 +3634,19 @@
         <v>70230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54706</v>
+        <v>55912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87225</v>
+        <v>87545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0920529517833418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07170550655534995</v>
+        <v>0.07328618778328709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1143291634786214</v>
+        <v>0.1147476154608831</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>338040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325733</v>
+        <v>325900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348910</v>
+        <v>348053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9038945373715058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8709858742954506</v>
+        <v>0.8714336295391742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9329580384450076</v>
+        <v>0.9306690775732231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>338</v>
@@ -3684,19 +3684,19 @@
         <v>354662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342185</v>
+        <v>342876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364567</v>
+        <v>365237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.911843597120391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8797632010056408</v>
+        <v>0.8815408568887401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9373074509160363</v>
+        <v>0.9390314772143838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>648</v>
@@ -3705,19 +3705,19 @@
         <v>692703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>675708</v>
+        <v>675388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708227</v>
+        <v>707021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9079470482166582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8856708365213786</v>
+        <v>0.8852523845391169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9282944934446499</v>
+        <v>0.9267138122167128</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5401</v>
+        <v>5277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18315</v>
+        <v>18573</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04888626066259019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02540057314238811</v>
+        <v>0.02482052159607192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08613916882331676</v>
+        <v>0.08735471803586015</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3830,19 +3830,19 @@
         <v>15693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8958</v>
+        <v>9166</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25468</v>
+        <v>26389</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07146624322215897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04079487550018991</v>
+        <v>0.04174104447512127</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1159800121314153</v>
+        <v>0.1201737127547484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -3851,19 +3851,19 @@
         <v>26087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17253</v>
+        <v>18271</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37182</v>
+        <v>38162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06035839682502357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03991796977190911</v>
+        <v>0.04227301570781385</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0860289715549223</v>
+        <v>0.08829490489762298</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194303</v>
+        <v>194045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207217</v>
+        <v>207341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9511137393374098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9138608311766833</v>
+        <v>0.9126452819641397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745994268576119</v>
+        <v>0.975179478403928</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>197</v>
@@ -3901,19 +3901,19 @@
         <v>203898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194123</v>
+        <v>193202</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210633</v>
+        <v>210425</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.928533756777841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.884019987868585</v>
+        <v>0.8798262872452516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.959205124499811</v>
+        <v>0.9582589555248787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>383</v>
@@ -3922,19 +3922,19 @@
         <v>406122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>395027</v>
+        <v>394047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414956</v>
+        <v>413938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9396416031749765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9139710284450778</v>
+        <v>0.911705095102377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9600820302280909</v>
+        <v>0.9577269842921863</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>20943</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13296</v>
+        <v>13308</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33124</v>
+        <v>31978</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0764406165531005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04852904385765677</v>
+        <v>0.04857369031176173</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1208995306267873</v>
+        <v>0.1167157696567096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -4047,19 +4047,19 @@
         <v>36895</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26440</v>
+        <v>26418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49297</v>
+        <v>49423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1317542274514087</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09441816383566587</v>
+        <v>0.09433852839057792</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1760397915650002</v>
+        <v>0.1764913900992157</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -4068,19 +4068,19 @@
         <v>57839</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44364</v>
+        <v>44669</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74005</v>
+        <v>74527</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1043994434762369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08007680455481694</v>
+        <v>0.08062762066729226</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1335796034915811</v>
+        <v>0.1345217367034956</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>253038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>240857</v>
+        <v>242003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260685</v>
+        <v>260673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9235593834468995</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8791004693732121</v>
+        <v>0.8832842303432904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9514709561423431</v>
+        <v>0.9514263096882384</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -4118,19 +4118,19 @@
         <v>243136</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230734</v>
+        <v>230608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253591</v>
+        <v>253613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8682457725485913</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8239602084349997</v>
+        <v>0.8235086099007841</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9055818361643342</v>
+        <v>0.905661471609422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>476</v>
@@ -4139,19 +4139,19 @@
         <v>496173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>480007</v>
+        <v>479485</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509648</v>
+        <v>509343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.895600556523763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8664203965084188</v>
+        <v>0.8654782632965046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9199231954451831</v>
+        <v>0.9193723793327079</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>61654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47158</v>
+        <v>48124</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77041</v>
+        <v>81371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09302293795444791</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07115020261504397</v>
+        <v>0.0726083530311816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1162384813107569</v>
+        <v>0.1227710881845805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -4264,19 +4264,19 @@
         <v>77510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59903</v>
+        <v>61881</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95361</v>
+        <v>95931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1117088739439141</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08633363958483865</v>
+        <v>0.08918454769893737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1374368052855611</v>
+        <v>0.1382582989546003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -4285,19 +4285,19 @@
         <v>139164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116855</v>
+        <v>115272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163397</v>
+        <v>163330</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1025798451257047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08613544399408556</v>
+        <v>0.08496834559103002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1204425862059308</v>
+        <v>0.1203930472403915</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>601134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585747</v>
+        <v>581417</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>615630</v>
+        <v>614664</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9069770620455521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8837615186892429</v>
+        <v>0.8772289118154176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9288497973849558</v>
+        <v>0.9273916469688184</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>569</v>
@@ -4335,19 +4335,19 @@
         <v>616343</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>598492</v>
+        <v>597922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>633950</v>
+        <v>631972</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.888291126056086</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.862563194714439</v>
+        <v>0.8617417010454004</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9136663604151614</v>
+        <v>0.9108154523010626</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1131</v>
@@ -4356,19 +4356,19 @@
         <v>1217477</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1193244</v>
+        <v>1193311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1239786</v>
+        <v>1241369</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8974201548742953</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8795574137940692</v>
+        <v>0.8796069527596084</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9138645560059144</v>
+        <v>0.9150316544089699</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>81961</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65267</v>
+        <v>65472</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102951</v>
+        <v>102405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1052003204564164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0837724658050195</v>
+        <v>0.08403565981731499</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1321409397547854</v>
+        <v>0.131440977059943</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -4481,19 +4481,19 @@
         <v>79862</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62232</v>
+        <v>64036</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98108</v>
+        <v>100979</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09693710710865097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0755374079110321</v>
+        <v>0.07772767019156927</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1190845138119724</v>
+        <v>0.1225689851753556</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -4502,19 +4502,19 @@
         <v>161823</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>137968</v>
+        <v>137374</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189817</v>
+        <v>187195</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1009533584675422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08607100950855683</v>
+        <v>0.08570086875922826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1184169736757431</v>
+        <v>0.1167815628830709</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>697137</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>676147</v>
+        <v>676693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>713831</v>
+        <v>713626</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8947996795435836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8678590602452146</v>
+        <v>0.8685590229400559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9162275341949804</v>
+        <v>0.9159643401826846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>684</v>
@@ -4552,19 +4552,19 @@
         <v>743991</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>725745</v>
+        <v>722874</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761621</v>
+        <v>759817</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.903062892891349</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8809154861880276</v>
+        <v>0.8774310148246447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.924462592088968</v>
+        <v>0.9222723298084311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1329</v>
@@ -4573,19 +4573,19 @@
         <v>1441128</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1413134</v>
+        <v>1415756</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1464983</v>
+        <v>1465577</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8990466415324577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8815830263242569</v>
+        <v>0.883218437116929</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.913928990491443</v>
+        <v>0.9142991312407717</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>285066</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08318777420176404</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>324</v>
@@ -4698,19 +4698,19 @@
         <v>354087</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09950985906560679</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>584</v>
@@ -4719,19 +4719,19 @@
         <v>639153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09150249025700991</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3141713</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3109219</v>
+        <v>3108597</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3174788</v>
+        <v>3174000</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.916812225798236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9073298279355939</v>
+        <v>0.9071484223764971</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9264641082062837</v>
+        <v>0.9262343358601636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2974</v>
@@ -4769,19 +4769,19 @@
         <v>3204222</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3164902</v>
+        <v>3163659</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3239258</v>
+        <v>3241193</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9004901409343932</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8894400222038247</v>
+        <v>0.889090472498129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9103364038045558</v>
+        <v>0.9108800028530131</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5923</v>
@@ -4790,19 +4790,19 @@
         <v>6345935</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6294951</v>
+        <v>6292130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6393071</v>
+        <v>6395607</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9084975097429902</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.901198565689776</v>
+        <v>0.9007946393005288</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9152455329337007</v>
+        <v>0.9156086738206192</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>34255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24415</v>
+        <v>24180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46226</v>
+        <v>47783</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.116609438853628</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08311069120872878</v>
+        <v>0.08231320682622853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1573576947868853</v>
+        <v>0.1626594051561603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -5159,19 +5159,19 @@
         <v>35833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24976</v>
+        <v>25521</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49184</v>
+        <v>49781</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1241173526530319</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08651117687464278</v>
+        <v>0.08839941388193905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1703610692646844</v>
+        <v>0.1724310205301239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -5180,19 +5180,19 @@
         <v>70088</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54960</v>
+        <v>55076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87255</v>
+        <v>89307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1203307971418573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09435767932833679</v>
+        <v>0.09455719378887981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1498026031158738</v>
+        <v>0.1533262779851977</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>259506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247535</v>
+        <v>245978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269346</v>
+        <v>269581</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8833905611463719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8426423052131148</v>
+        <v>0.8373405948438399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9168893087912713</v>
+        <v>0.9176867931737717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -5230,19 +5230,19 @@
         <v>252870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239519</v>
+        <v>238922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263727</v>
+        <v>263182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8758826473469681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8296389307353152</v>
+        <v>0.827568979469876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.913488823125357</v>
+        <v>0.9116005861180609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -5251,19 +5251,19 @@
         <v>512376</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>495209</v>
+        <v>493157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>527504</v>
+        <v>527388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8796692028581427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8501973968841262</v>
+        <v>0.8466737220148023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9056423206716633</v>
+        <v>0.9054428062111204</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>40208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28888</v>
+        <v>29866</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54952</v>
+        <v>55656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08000428344937244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05748056578937386</v>
+        <v>0.0594266820764855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1093411392419639</v>
+        <v>0.1107424209115968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -5376,19 +5376,19 @@
         <v>39083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27242</v>
+        <v>26728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53171</v>
+        <v>52825</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07471673875959692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05207924178088227</v>
+        <v>0.05109644766194472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1016482914033431</v>
+        <v>0.1009871841725871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -5397,19 +5397,19 @@
         <v>79291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62337</v>
+        <v>63414</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99684</v>
+        <v>99407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07730764738264427</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06077723552914483</v>
+        <v>0.0618274233221219</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0971906191985458</v>
+        <v>0.09691965352315314</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>462367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447623</v>
+        <v>446919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473687</v>
+        <v>472709</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9199957165506275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8906588607580361</v>
+        <v>0.8892575790884029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9425194342106256</v>
+        <v>0.9405733179235144</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -5447,19 +5447,19 @@
         <v>484001</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>469913</v>
+        <v>470259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495842</v>
+        <v>496356</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9252832612404031</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8983517085966567</v>
+        <v>0.8990128158274125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9479207582191175</v>
+        <v>0.9489035523380549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>887</v>
@@ -5468,19 +5468,19 @@
         <v>946368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925975</v>
+        <v>926252</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>963322</v>
+        <v>962245</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9226923526173557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9028093808014543</v>
+        <v>0.9030803464768469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9392227644708555</v>
+        <v>0.9381725766778781</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>29997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21136</v>
+        <v>21160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40118</v>
+        <v>41103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09416333202995289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06634650356919826</v>
+        <v>0.06642281872252408</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1259342336341555</v>
+        <v>0.1290268807177736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5593,19 +5593,19 @@
         <v>46463</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33485</v>
+        <v>34347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60662</v>
+        <v>61358</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1381545655433402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0995670159401207</v>
+        <v>0.1021298164618722</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1803750584976558</v>
+        <v>0.1824462665867874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -5614,19 +5614,19 @@
         <v>76460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62031</v>
+        <v>61542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97187</v>
+        <v>93518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1167549265176495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.094721717185637</v>
+        <v>0.09397467633745379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1484060192939417</v>
+        <v>0.142802872709465</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>288568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278447</v>
+        <v>277462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297429</v>
+        <v>297405</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9058366679700471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8740657663658444</v>
+        <v>0.8709731192822262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9336534964308018</v>
+        <v>0.9335771812774758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>290</v>
@@ -5664,19 +5664,19 @@
         <v>289846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275647</v>
+        <v>274951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302824</v>
+        <v>301962</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8618454344566598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8196249415023442</v>
+        <v>0.8175537334132125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9004329840598794</v>
+        <v>0.8978701835381278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>592</v>
@@ -5685,19 +5685,19 @@
         <v>578414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>557687</v>
+        <v>561356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>592843</v>
+        <v>593332</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8832450734823505</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8515939807060582</v>
+        <v>0.8571971272905349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.905278282814363</v>
+        <v>0.9060253236625461</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>41942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29511</v>
+        <v>29794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54213</v>
+        <v>54322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1133678371611594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07976707655507477</v>
+        <v>0.080533240740464</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1465347697721704</v>
+        <v>0.1468299996261624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -5810,19 +5810,19 @@
         <v>51744</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37978</v>
+        <v>39119</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68348</v>
+        <v>67824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1336086958152882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09806224313436551</v>
+        <v>0.101009150721853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1764811286935674</v>
+        <v>0.1751283445335051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -5831,19 +5831,19 @@
         <v>93686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76175</v>
+        <v>74971</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113978</v>
+        <v>114971</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1237197309149337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005940001761276</v>
+        <v>0.09900417769166778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1505166607198771</v>
+        <v>0.1518282209048818</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>328022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315751</v>
+        <v>315642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>340453</v>
+        <v>340170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8866321628388406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8534652302278297</v>
+        <v>0.8531700003738374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9202329234449256</v>
+        <v>0.9194667592595359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>315</v>
@@ -5881,19 +5881,19 @@
         <v>335539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318935</v>
+        <v>319459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349305</v>
+        <v>348164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8663913041847118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8235188713064329</v>
+        <v>0.8248716554664948</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9019377568656347</v>
+        <v>0.898990849278147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>629</v>
@@ -5902,19 +5902,19 @@
         <v>663561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>643269</v>
+        <v>642276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>681072</v>
+        <v>682276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8762802690850663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.849483339280123</v>
+        <v>0.8481717790951184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8994059998238726</v>
+        <v>0.9009958223083322</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>30762</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21723</v>
+        <v>21266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43073</v>
+        <v>41769</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1456370139067108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1028437328289378</v>
+        <v>0.1006827611936641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2039237808712069</v>
+        <v>0.1977487670838964</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -6027,19 +6027,19 @@
         <v>19487</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11258</v>
+        <v>12053</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29055</v>
+        <v>31308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08914853127967852</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05150451166117431</v>
+        <v>0.05514085111500033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1329224327413412</v>
+        <v>0.1432275829282115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -6048,19 +6048,19 @@
         <v>50248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37855</v>
+        <v>38726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64313</v>
+        <v>66238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1169087259222677</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08807438916505669</v>
+        <v>0.09010178393670053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1496317865328064</v>
+        <v>0.1541095525799594</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>180459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168148</v>
+        <v>169452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189498</v>
+        <v>189955</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8543629860932892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.796076219128793</v>
+        <v>0.8022512329161037</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8971562671710621</v>
+        <v>0.8993172388063359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -6098,19 +6098,19 @@
         <v>199100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189532</v>
+        <v>187279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207329</v>
+        <v>206534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9108514687203215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.867077567258659</v>
+        <v>0.8567724170717878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.948495488338826</v>
+        <v>0.9448591488849996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -6119,19 +6119,19 @@
         <v>379560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365495</v>
+        <v>363570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391953</v>
+        <v>391082</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8830912740777322</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8503682134671938</v>
+        <v>0.8458904474200406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9119256108349434</v>
+        <v>0.9098982160632995</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>29670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20721</v>
+        <v>20068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41452</v>
+        <v>41351</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1127617419773627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0787504825746978</v>
+        <v>0.07626937048320355</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1575385180788986</v>
+        <v>0.1571534047433795</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -6244,19 +6244,19 @@
         <v>36217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26241</v>
+        <v>25797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49397</v>
+        <v>48797</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1326063754311628</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09608062868617942</v>
+        <v>0.09445448313839977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1808643468094226</v>
+        <v>0.1786665562768932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -6265,19 +6265,19 @@
         <v>65887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50078</v>
+        <v>52317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82516</v>
+        <v>84088</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1228689463870708</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09338803322747599</v>
+        <v>0.09756310214373262</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1538794995963512</v>
+        <v>0.1568106818596886</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>233453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221671</v>
+        <v>221772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242402</v>
+        <v>243055</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8872382580226372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8424614819211015</v>
+        <v>0.8428465952566203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9212495174253023</v>
+        <v>0.9237306295167964</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>230</v>
@@ -6315,19 +6315,19 @@
         <v>236898</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223718</v>
+        <v>224318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246874</v>
+        <v>247318</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8673936245688373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8191356531905774</v>
+        <v>0.8213334437231066</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9039193713138206</v>
+        <v>0.9055455168616001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>461</v>
@@ -6336,19 +6336,19 @@
         <v>470351</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453722</v>
+        <v>452150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486160</v>
+        <v>483921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8771310536129292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8461205004036488</v>
+        <v>0.8431893181403113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9066119667725241</v>
+        <v>0.9024368978562675</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>121860</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103492</v>
+        <v>101674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143742</v>
+        <v>143020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1856044204246206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.157627759630652</v>
+        <v>0.1548593118966568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2189324499242014</v>
+        <v>0.2178326213354172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -6461,19 +6461,19 @@
         <v>138145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116981</v>
+        <v>117760</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161937</v>
+        <v>163411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1998355925706162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.169220080384282</v>
+        <v>0.1703466517989107</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2342520352730388</v>
+        <v>0.2363835307946481</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>231</v>
@@ -6482,19 +6482,19 @@
         <v>260005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231977</v>
+        <v>230880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292840</v>
+        <v>291907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1929033849564298</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.172108735519331</v>
+        <v>0.1712950192984996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2172638889715348</v>
+        <v>0.216571970528655</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>534698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>512816</v>
+        <v>513538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>553066</v>
+        <v>554884</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8143955795753794</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7810675500757986</v>
+        <v>0.7821673786645829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.842372240369348</v>
+        <v>0.8451406881033433</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>522</v>
@@ -6532,19 +6532,19 @@
         <v>553149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>529357</v>
+        <v>527883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>574313</v>
+        <v>573534</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8001644074293838</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7657479647269612</v>
+        <v>0.763616469205352</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8307799196157181</v>
+        <v>0.8296533482010894</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>995</v>
@@ -6553,19 +6553,19 @@
         <v>1087847</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1055012</v>
+        <v>1055945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1115875</v>
+        <v>1116972</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8070966150435701</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7827361110284645</v>
+        <v>0.7834280294713454</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.827891264480669</v>
+        <v>0.8287049807015007</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>97401</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79030</v>
+        <v>78381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>118320</v>
+        <v>116469</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1251001558045437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1015048440097999</v>
+        <v>0.1006707347782509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.151968031935989</v>
+        <v>0.149590655576646</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -6678,19 +6678,19 @@
         <v>101026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79892</v>
+        <v>82725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>120648</v>
+        <v>122045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1222826832990831</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09670140118415484</v>
+        <v>0.1001312544657689</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1460332937811128</v>
+        <v>0.1477239183492371</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -6699,19 +6699,19 @@
         <v>198427</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172716</v>
+        <v>174478</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227024</v>
+        <v>226866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1236496477411102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.107627820610204</v>
+        <v>0.108725811008601</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1414700101523756</v>
+        <v>0.1413714619240211</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>681182</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>660263</v>
+        <v>662114</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>699553</v>
+        <v>700202</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8748998441954563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8480319680640113</v>
+        <v>0.8504093444233543</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8984951559902001</v>
+        <v>0.8993292652217492</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>669</v>
@@ -6749,19 +6749,19 @@
         <v>725141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>705519</v>
+        <v>704122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>746275</v>
+        <v>743442</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8777173167009169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8539667062188872</v>
+        <v>0.8522760816507629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9032985988158452</v>
+        <v>0.899868745534231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1324</v>
@@ -6770,19 +6770,19 @@
         <v>1406323</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1377726</v>
+        <v>1377884</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1432034</v>
+        <v>1430272</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8763503522588898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8585299898476244</v>
+        <v>0.8586285380759792</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.892372179389796</v>
+        <v>0.8912741889913991</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>426095</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1255307575641389</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>409</v>
@@ -6895,19 +6895,19 @@
         <v>467998</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1320333477715592</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>814</v>
@@ -6916,19 +6916,19 @@
         <v>894093</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1288524266369528</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2968255</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2926794</v>
+        <v>2928528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3006798</v>
+        <v>3006257</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8744692424358611</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8622546301441015</v>
+        <v>0.862765583606515</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8858244226603349</v>
+        <v>0.8856650598842016</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2929</v>
@@ -6966,19 +6966,19 @@
         <v>3076544</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3035447</v>
+        <v>3030891</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3118904</v>
+        <v>3115436</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8679666522284408</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8563722295490466</v>
+        <v>0.8550867945672616</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8799172298186618</v>
+        <v>0.8789389560918429</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5755</v>
@@ -6987,19 +6987,19 @@
         <v>6044799</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5983404</v>
+        <v>5980957</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6101689</v>
+        <v>6101141</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8711475733630472</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.862299599063533</v>
+        <v>0.8619470378305477</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8793463215121009</v>
+        <v>0.879267352504255</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>57835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43763</v>
+        <v>45517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73380</v>
+        <v>73114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1813896173342524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1372546000535614</v>
+        <v>0.1427560555742057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2301446216424426</v>
+        <v>0.2293088698716386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -7356,19 +7356,19 @@
         <v>46800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38247</v>
+        <v>38464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56422</v>
+        <v>57365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1480711850066724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1210106147561827</v>
+        <v>0.1216978148474952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1785167531503458</v>
+        <v>0.1814995515432011</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -7377,19 +7377,19 @@
         <v>104635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87204</v>
+        <v>89539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121796</v>
+        <v>123588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1648034669375435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1373487029853929</v>
+        <v>0.1410269887908129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1918334003696041</v>
+        <v>0.1946552581854047</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>261010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245465</v>
+        <v>245731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275082</v>
+        <v>273328</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8186103826657476</v>
+        <v>0.8186103826657477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7698553783575574</v>
+        <v>0.7706911301283615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8627453999464386</v>
+        <v>0.8572439444257944</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>449</v>
@@ -7427,19 +7427,19 @@
         <v>269261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259639</v>
+        <v>258696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>277814</v>
+        <v>277597</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8519288149933275</v>
+        <v>0.8519288149933277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.821483246849654</v>
+        <v>0.8185004484567988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8789893852438171</v>
+        <v>0.8783021851525046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>720</v>
@@ -7448,19 +7448,19 @@
         <v>530271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>513110</v>
+        <v>511318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>547702</v>
+        <v>545367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8351965330624564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8081665996303956</v>
+        <v>0.8053447418145953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8626512970146067</v>
+        <v>0.8589730112091868</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>83945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65545</v>
+        <v>64599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106324</v>
+        <v>104227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1581937959556459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1235198217737317</v>
+        <v>0.1217365394742527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2003657919089226</v>
+        <v>0.196414482278097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -7573,19 +7573,19 @@
         <v>88673</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74970</v>
+        <v>73870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104237</v>
+        <v>104871</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.162258081715748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1371832449803439</v>
+        <v>0.1351714589047123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.190738055758658</v>
+        <v>0.191898166624523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -7594,19 +7594,19 @@
         <v>172618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150341</v>
+        <v>147002</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199158</v>
+        <v>199311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1602558365452371</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.139574189846568</v>
+        <v>0.1364746543066073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1848946621185679</v>
+        <v>0.185037335831267</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>446702</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424323</v>
+        <v>426420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>465102</v>
+        <v>466048</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8418062040443539</v>
+        <v>0.8418062040443541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7996342080910774</v>
+        <v>0.8035855177219029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8764801782262683</v>
+        <v>0.8782634605257472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -7644,19 +7644,19 @@
         <v>457821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442257</v>
+        <v>441623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>471524</v>
+        <v>472624</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8377419182842519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8092619442413421</v>
+        <v>0.8081018333754769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8628167550196562</v>
+        <v>0.8648285410952878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>902</v>
@@ -7665,19 +7665,19 @@
         <v>904523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>877983</v>
+        <v>877830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>926800</v>
+        <v>930139</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.839744163454763</v>
+        <v>0.8397441634547629</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8151053378814329</v>
+        <v>0.814962664168733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8604258101534321</v>
+        <v>0.8635253456933928</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>60977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48313</v>
+        <v>49743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73748</v>
+        <v>76665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.192968218839588</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1528935103398881</v>
+        <v>0.1574194582093442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2333847882629357</v>
+        <v>0.2426156561920421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -7790,19 +7790,19 @@
         <v>75641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64676</v>
+        <v>63948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87961</v>
+        <v>87600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2122465190512379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1814805101840187</v>
+        <v>0.1794373889344465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2468163425965396</v>
+        <v>0.2458055300218163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -7811,19 +7811,19 @@
         <v>136617</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118557</v>
+        <v>119836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155406</v>
+        <v>154555</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2031863691750471</v>
+        <v>0.203186369175047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1763263393168779</v>
+        <v>0.1782280718893394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2311301012501391</v>
+        <v>0.2298643066415086</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>255016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242245</v>
+        <v>239328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267680</v>
+        <v>266250</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8070317811604121</v>
+        <v>0.807031781160412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7666152117370655</v>
+        <v>0.7573843438079579</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8471064896601118</v>
+        <v>0.8425805417906559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>401</v>
@@ -7861,19 +7861,19 @@
         <v>280740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268420</v>
+        <v>268781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>291705</v>
+        <v>292433</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7877534809487622</v>
+        <v>0.7877534809487621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7531836574034604</v>
+        <v>0.7541944699781837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8185194898159812</v>
+        <v>0.8205626110655535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>686</v>
@@ -7882,19 +7882,19 @@
         <v>535758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516969</v>
+        <v>517820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553818</v>
+        <v>552539</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7968136308249533</v>
+        <v>0.7968136308249529</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7688698987498609</v>
+        <v>0.7701356933584913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8236736606831221</v>
+        <v>0.8217719281106607</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>84307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65485</v>
+        <v>67039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105723</v>
+        <v>108143</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2259360815570821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1754960713141276</v>
+        <v>0.1796605156606383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2833291646512323</v>
+        <v>0.2898144287620443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>173</v>
@@ -8007,19 +8007,19 @@
         <v>89145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75570</v>
+        <v>76149</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104380</v>
+        <v>102377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.211264302724443</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1790924512866764</v>
+        <v>0.1804645180947486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2473683143462404</v>
+        <v>0.2426225268139152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -8028,19 +8028,19 @@
         <v>173452</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151355</v>
+        <v>151320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199947</v>
+        <v>201559</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2181497995872473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1903575056251757</v>
+        <v>0.1903138453948494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2514714294892301</v>
+        <v>0.2534991114881752</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>288838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267422</v>
+        <v>265002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307660</v>
+        <v>306106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7740639184429179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7166708353487679</v>
+        <v>0.7101855712379557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8245039286858724</v>
+        <v>0.8203394843393618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>426</v>
@@ -8078,19 +8078,19 @@
         <v>332816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317581</v>
+        <v>319584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346391</v>
+        <v>345812</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.788735697275557</v>
+        <v>0.7887356972755571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7526316856537596</v>
+        <v>0.7573774731860847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8209075487133234</v>
+        <v>0.8195354819052513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>651</v>
@@ -8099,19 +8099,19 @@
         <v>621655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>595160</v>
+        <v>593548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>643752</v>
+        <v>643787</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7818502004127527</v>
+        <v>0.7818502004127525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7485285705107697</v>
+        <v>0.7465008885118247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8096424943748242</v>
+        <v>0.8096861546051505</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>50987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41159</v>
+        <v>40731</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61714</v>
+        <v>62176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2479132106077377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2001287043417894</v>
+        <v>0.1980445004534241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3000716342123725</v>
+        <v>0.302316663556752</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -8224,19 +8224,19 @@
         <v>43880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36865</v>
+        <v>36087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52828</v>
+        <v>52776</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1916863517067135</v>
+        <v>0.1916863517067136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1610412007727959</v>
+        <v>0.1576427462674563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2307708022909944</v>
+        <v>0.2305466389609338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -8245,19 +8245,19 @@
         <v>94867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81643</v>
+        <v>81533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109580</v>
+        <v>108778</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2182955368881964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1878648168377354</v>
+        <v>0.1876131699660036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2521509883900293</v>
+        <v>0.2503059161145971</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>154678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143951</v>
+        <v>143489</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164506</v>
+        <v>164934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7520867893922621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6999283657876274</v>
+        <v>0.697683336443248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7998712956582106</v>
+        <v>0.801955499546576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>389</v>
@@ -8295,19 +8295,19 @@
         <v>185038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176090</v>
+        <v>176142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192053</v>
+        <v>192831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8083136482932866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.769229197709006</v>
+        <v>0.7694533610390657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8389587992272043</v>
+        <v>0.8423572537325436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>595</v>
@@ -8316,19 +8316,19 @@
         <v>339715</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325002</v>
+        <v>325804</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>352939</v>
+        <v>353049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7817044631118036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7478490116099712</v>
+        <v>0.7496940838854029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8121351831622647</v>
+        <v>0.8123868300339964</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>73711</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62923</v>
+        <v>61274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88292</v>
+        <v>86941</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2722903986508448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2324404242576486</v>
+        <v>0.2263470187616707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3261530239168726</v>
+        <v>0.3211629317719629</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -8441,19 +8441,19 @@
         <v>56000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47525</v>
+        <v>46913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65787</v>
+        <v>66599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2123213668214297</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1801889644006361</v>
+        <v>0.1778678508142526</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2494307830268601</v>
+        <v>0.2525075320377528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -8462,19 +8462,19 @@
         <v>129711</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115796</v>
+        <v>115183</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147909</v>
+        <v>146564</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2426961719397878</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.216661945307172</v>
+        <v>0.2155142352002769</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2767464166916925</v>
+        <v>0.2742302055737196</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>196996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182415</v>
+        <v>183766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207784</v>
+        <v>209433</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7277096013491553</v>
+        <v>0.7277096013491552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6738469760831273</v>
+        <v>0.678837068228037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7675595757423513</v>
+        <v>0.7736529812383293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>329</v>
@@ -8512,19 +8512,19 @@
         <v>207750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>197963</v>
+        <v>197151</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>216225</v>
+        <v>216837</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7876786331785703</v>
+        <v>0.7876786331785701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7505692169731399</v>
+        <v>0.7474924679622476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8198110355993637</v>
+        <v>0.822132149185748</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>585</v>
@@ -8533,19 +8533,19 @@
         <v>404746</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>386548</v>
+        <v>387893</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418661</v>
+        <v>419274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7573038280602122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7232535833083076</v>
+        <v>0.7257697944262805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7833380546928278</v>
+        <v>0.7844857647997232</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>129645</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108095</v>
+        <v>110817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153702</v>
+        <v>153600</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1801402915044197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1501967044248696</v>
+        <v>0.1539791197857059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2135682736758619</v>
+        <v>0.213425461953377</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -8658,19 +8658,19 @@
         <v>105248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90261</v>
+        <v>89627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122654</v>
+        <v>121576</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1363217420492411</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1169096987831132</v>
+        <v>0.1160889875372103</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1588669157416701</v>
+        <v>0.1574701977827594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>270</v>
@@ -8679,19 +8679,19 @@
         <v>234893</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>209859</v>
+        <v>208271</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>265170</v>
+        <v>260737</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1574618614699906</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1406802624403949</v>
+        <v>0.13961600107521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1777583579216838</v>
+        <v>0.1747867850799125</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>590042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>565985</v>
+        <v>566087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>611592</v>
+        <v>608870</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8198597084955804</v>
+        <v>0.8198597084955805</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7864317263241382</v>
+        <v>0.786574538046623</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8498032955751305</v>
+        <v>0.8460208802142943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>809</v>
@@ -8729,19 +8729,19 @@
         <v>666809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>649403</v>
+        <v>650481</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>681796</v>
+        <v>682430</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8636782579507588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8411330842583298</v>
+        <v>0.8425298022172407</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8830903012168867</v>
+        <v>0.8839110124627907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1289</v>
@@ -8750,19 +8750,19 @@
         <v>1256851</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1226574</v>
+        <v>1231007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1281885</v>
+        <v>1283473</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8425381385300095</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8222416420783161</v>
+        <v>0.8252132149200875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8593197375596051</v>
+        <v>0.8603839989247899</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>109570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92065</v>
+        <v>90823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129178</v>
+        <v>130760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1372933587881748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1153596372168832</v>
+        <v>0.1138027331083131</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1618622005016193</v>
+        <v>0.1638451654259042</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>214</v>
@@ -8875,19 +8875,19 @@
         <v>152147</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134707</v>
+        <v>133298</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>171953</v>
+        <v>173836</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1830157908221766</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1620376670007654</v>
+        <v>0.1603426936233756</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2068402876227464</v>
+        <v>0.2091057660985952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>326</v>
@@ -8896,19 +8896,19 @@
         <v>261717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>237688</v>
+        <v>235415</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>289103</v>
+        <v>288480</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1606212203662686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1458740358559382</v>
+        <v>0.1444792275275726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1774287753795561</v>
+        <v>0.1770465914788964</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>688502</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>668894</v>
+        <v>667312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>706007</v>
+        <v>707249</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8627066412118253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8381377994983805</v>
+        <v>0.8361548345740955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8846403627831169</v>
+        <v>0.8861972668916868</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>848</v>
@@ -8946,19 +8946,19 @@
         <v>679184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>659378</v>
+        <v>657495</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>696624</v>
+        <v>698033</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8169842091778234</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7931597123772536</v>
+        <v>0.7908942339014045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8379623329992345</v>
+        <v>0.8396573063766243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1498</v>
@@ -8967,19 +8967,19 @@
         <v>1367686</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1340300</v>
+        <v>1340923</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1391715</v>
+        <v>1393988</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8393787796337314</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8225712246204441</v>
+        <v>0.8229534085211037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8541259641440618</v>
+        <v>0.8555207724724274</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>650977</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1842684426684743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1128</v>
@@ -9092,19 +9092,19 @@
         <v>657534</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1759544836811777</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1817</v>
@@ -9113,19 +9113,19 @@
         <v>1308510</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1799947016645022</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2881785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2830032</v>
+        <v>2836272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2929608</v>
+        <v>2929117</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8157315573315258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.80108210546252</v>
+        <v>0.8028481936467803</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8292684605405996</v>
+        <v>0.8291295217364325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4239</v>
@@ -9163,19 +9163,19 @@
         <v>3079420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3040764</v>
+        <v>3039469</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3117151</v>
+        <v>3114811</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8240455163188224</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8137012269301892</v>
+        <v>0.8133547423844349</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8341421569771073</v>
+        <v>0.8335159306672459</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6926</v>
@@ -9184,19 +9184,19 @@
         <v>5961206</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5901824</v>
+        <v>5890127</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6023868</v>
+        <v>6021974</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8200052983354977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8118369468159373</v>
+        <v>0.8102279352296921</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8286248734270473</v>
+        <v>0.8283644232929176</v>
       </c>
     </row>
     <row r="30">
